--- a/data/fkSequencedSamples.xlsx
+++ b/data/fkSequencedSamples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/floridaKeysMcavSnp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/floridaKeysMcavSnp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080FEBCE-CAE0-CA46-BA84-55B9E327FC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9620BB-2295-7444-8B7B-07E94EA52399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="520" windowWidth="25600" windowHeight="14680" activeTab="5" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="25600" windowHeight="14420" firstSheet="2" activeTab="6" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
   </bookViews>
   <sheets>
     <sheet name="allSamples" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="samplesNoClones" sheetId="6" r:id="rId4"/>
     <sheet name="sequencedSamplesbyPop" sheetId="4" r:id="rId5"/>
     <sheet name="clonePairs" sheetId="5" r:id="rId6"/>
+    <sheet name="sampleByPopNoClones" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5310" uniqueCount="919">
   <si>
     <t>Sample</t>
   </si>
@@ -2792,13 +2793,19 @@
   </si>
   <si>
     <t>kept renamed 171</t>
+  </si>
+  <si>
+    <t>Site/DepthZone</t>
+  </si>
+  <si>
+    <t>Individuals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2833,6 +2840,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2848,7 +2863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2926,12 +2941,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2980,6 +3010,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6539,7 +6581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -14973,8 +15015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB995F32-52D5-464D-A1EA-04C7AE1F2C0E}">
   <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24143,7 +24185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375ABD3A-D009-5A4C-AB9F-FEF62BE60C75}">
   <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -33230,7 +33272,7 @@
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A4" sqref="A4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33360,7 +33402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649411CF-1716-E442-A503-127494987FEB}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -33677,4 +33719,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3E58A-DDA0-0945-B24A-1A869F342A4A}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="B3" s="25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="B4" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="B6" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="B7" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="B8" s="23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="B9" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="B10" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="B12" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="B13" s="25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22" t="s">
+        <v>906</v>
+      </c>
+      <c r="B14" s="22">
+        <f>SUM(B2,B5,B8,B11)</f>
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/fkSequencedSamples.xlsx
+++ b/data/fkSequencedSamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/floridaKeysMcavSnp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9620BB-2295-7444-8B7B-07E94EA52399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E5BEC-7E3E-704C-8569-4F63F3108E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="25600" windowHeight="14420" firstSheet="2" activeTab="6" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
+    <workbookView xWindow="9300" yWindow="460" windowWidth="25600" windowHeight="14420" firstSheet="2" activeTab="3" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
   </bookViews>
   <sheets>
     <sheet name="allSamples" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6581,7 +6581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -24185,8 +24185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375ABD3A-D009-5A4C-AB9F-FEF62BE60C75}">
   <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33725,7 +33725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3E58A-DDA0-0945-B24A-1A869F342A4A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/data/fkSequencedSamples.xlsx
+++ b/data/fkSequencedSamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/floridaKeysMcavSnp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A64E6B-6C3B-7B4F-B1C3-EBFAEC6280F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6306FBD1-E76F-BD43-8D4C-BB226A0914BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="3" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
+    <workbookView xWindow="10580" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="6" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
   </bookViews>
   <sheets>
     <sheet name="allSamples" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="13" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="924">
   <si>
     <t>Sample</t>
   </si>
@@ -2802,6 +2802,18 @@
   </si>
   <si>
     <t>Average Depth (m)</t>
+  </si>
+  <si>
+    <t>Overall average dept</t>
+  </si>
+  <si>
+    <t>Difference between shallow and meso averages</t>
+  </si>
+  <si>
+    <t>Difference between pop average and overall average</t>
+  </si>
+  <si>
+    <t>Order of depth differences from average for bayescenv</t>
   </si>
 </sst>
 </file>
@@ -6588,7 +6600,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -24192,8 +24204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375ABD3A-D009-5A4C-AB9F-FEF62BE60C75}">
   <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160:G174"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24244,37 +24256,37 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>724</v>
+        <v>393</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>725</v>
+        <v>394</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K2" s="27">
-        <v>32.634999999999998</v>
+        <v>32.94</v>
       </c>
       <c r="L2" t="str">
         <f>IF(K2&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24285,38 +24297,38 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2">
-        <v>158</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>730</v>
+        <v>395</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>731</v>
+        <v>396</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K3" s="12">
-        <v>32.634999999999998</v>
+        <v>33.854999999999997</v>
       </c>
       <c r="L3" t="str">
         <f>IF(K3&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24328,37 +24340,37 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>732</v>
+        <v>397</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>733</v>
+        <v>398</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K4" s="12">
-        <v>32.024999999999999</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="L4" t="str">
         <f>IF(K4&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24370,37 +24382,37 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>734</v>
+        <v>399</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>735</v>
+        <v>400</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K5" s="12">
-        <v>32.33</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="L5" t="str">
         <f>IF(K5&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24411,38 +24423,38 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2">
-        <v>161</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="8">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>736</v>
+        <v>401</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>737</v>
+        <v>402</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K6" s="12">
-        <v>31.11</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="L6" t="str">
         <f>IF(K6&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24454,37 +24466,37 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>738</v>
+        <v>403</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>739</v>
+        <v>404</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K7" s="12">
-        <v>31.11</v>
+        <v>34.769999999999996</v>
       </c>
       <c r="L7" t="str">
         <f>IF(K7&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24496,37 +24508,37 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>740</v>
+        <v>405</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>741</v>
+        <v>406</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K8" s="12">
-        <v>30.805</v>
+        <v>33.854999999999997</v>
       </c>
       <c r="L8" t="str">
         <f>IF(K8&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24538,37 +24550,37 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>742</v>
+        <v>407</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>743</v>
+        <v>408</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K9" s="12">
-        <v>30.195</v>
+        <v>32.94</v>
       </c>
       <c r="L9" t="str">
         <f>IF(K9&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24580,37 +24592,37 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>744</v>
+        <v>409</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>745</v>
+        <v>410</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K10" s="12">
-        <v>31.11</v>
+        <v>34.464999999999996</v>
       </c>
       <c r="L10" t="str">
         <f>IF(K10&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24622,37 +24634,37 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>746</v>
+        <v>411</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>747</v>
+        <v>412</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>726</v>
+        <v>386</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>728</v>
+        <v>390</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="K11" s="12">
-        <v>30.5</v>
+        <v>36.905000000000001</v>
       </c>
       <c r="L11" t="str">
         <f>IF(K11&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24663,164 +24675,164 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2">
-        <v>167</v>
+      <c r="A12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>748</v>
+        <v>413</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>749</v>
+        <v>414</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>726</v>
+        <v>415</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>727</v>
+        <v>416</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>728</v>
+        <v>417</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>729</v>
+        <v>418</v>
       </c>
       <c r="K12" s="12">
-        <v>31.11</v>
+        <v>16.47</v>
       </c>
       <c r="L12" t="str">
         <f>IF(K12&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>750</v>
+        <v>420</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>751</v>
+        <v>421</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>726</v>
+        <v>415</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>727</v>
+        <v>416</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>728</v>
+        <v>417</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>729</v>
+        <v>418</v>
       </c>
       <c r="K13" s="12">
-        <v>31.11</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="L13" t="str">
         <f>IF(K13&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>752</v>
+        <v>422</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>753</v>
+        <v>423</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>726</v>
+        <v>415</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>727</v>
+        <v>416</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>728</v>
+        <v>417</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>729</v>
+        <v>418</v>
       </c>
       <c r="K14" s="12">
-        <v>31.11</v>
+        <v>15.86</v>
       </c>
       <c r="L14" t="str">
         <f>IF(K14&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>661</v>
+        <v>424</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>662</v>
+        <v>425</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K15" s="12">
-        <v>18.3</v>
+        <v>14.64</v>
       </c>
       <c r="L15" t="str">
         <f>IF(K15&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24832,37 +24844,37 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>668</v>
+        <v>426</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>669</v>
+        <v>427</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K16" s="12">
-        <v>18.3</v>
+        <v>14.64</v>
       </c>
       <c r="L16" t="str">
         <f>IF(K16&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24874,37 +24886,37 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>670</v>
+        <v>428</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>671</v>
+        <v>429</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K17" s="12">
-        <v>17.995000000000001</v>
+        <v>15.555</v>
       </c>
       <c r="L17" t="str">
         <f>IF(K17&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24916,37 +24928,37 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>672</v>
+        <v>430</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>673</v>
+        <v>431</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K18" s="12">
-        <v>16.774999999999999</v>
+        <v>12.504999999999999</v>
       </c>
       <c r="L18" t="str">
         <f>IF(K18&gt;29.5,"Mesophotic","Shallow")</f>
@@ -24958,37 +24970,37 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B19" s="8">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>674</v>
+        <v>432</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>675</v>
+        <v>433</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K19" s="12">
-        <v>17.995000000000001</v>
+        <v>15.25</v>
       </c>
       <c r="L19" t="str">
         <f>IF(K19&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25000,37 +25012,37 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>676</v>
+        <v>434</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>677</v>
+        <v>435</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K20" s="12">
-        <v>17.384999999999998</v>
+        <v>14.945</v>
       </c>
       <c r="L20" t="str">
         <f>IF(K20&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25042,37 +25054,37 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>678</v>
+        <v>436</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>679</v>
+        <v>437</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K21" s="12">
-        <v>17.995000000000001</v>
+        <v>15.86</v>
       </c>
       <c r="L21" t="str">
         <f>IF(K21&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25084,37 +25096,37 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>680</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>681</v>
+        <v>439</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K22" s="12">
-        <v>17.690000000000001</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="L22" t="str">
         <f>IF(K22&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25126,37 +25138,37 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>682</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>683</v>
+        <v>441</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K23" s="12">
-        <v>17.690000000000001</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="L23" t="str">
         <f>IF(K23&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25168,37 +25180,37 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>684</v>
+        <v>442</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>685</v>
+        <v>443</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K24" s="12">
-        <v>17.690000000000001</v>
+        <v>14.64</v>
       </c>
       <c r="L24" t="str">
         <f>IF(K24&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25210,37 +25222,37 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="B25" s="8">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>686</v>
+        <v>444</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>687</v>
+        <v>445</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K25" s="12">
-        <v>17.690000000000001</v>
+        <v>13.725</v>
       </c>
       <c r="L25" t="str">
         <f>IF(K25&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25252,37 +25264,37 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="B26" s="8">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>688</v>
+        <v>446</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>689</v>
+        <v>447</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K26" s="12">
-        <v>17.995000000000001</v>
+        <v>15.555</v>
       </c>
       <c r="L26" t="str">
         <f>IF(K26&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25293,38 +25305,38 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="2">
-        <v>140</v>
+      <c r="A27" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B27" s="8">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>690</v>
+        <v>448</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K27" s="12">
-        <v>17.690000000000001</v>
+        <v>15.555</v>
       </c>
       <c r="L27" t="str">
         <f>IF(K27&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25336,37 +25348,37 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="B28" s="8">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>692</v>
+        <v>450</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>693</v>
+        <v>451</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K28" s="12">
-        <v>17.995000000000001</v>
+        <v>15.86</v>
       </c>
       <c r="L28" t="str">
         <f>IF(K28&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25377,38 +25389,38 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2">
-        <v>142</v>
+      <c r="A29" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B29" s="8">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>694</v>
+        <v>452</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>695</v>
+        <v>453</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K29" s="12">
-        <v>17.384999999999998</v>
+        <v>15.86</v>
       </c>
       <c r="L29" t="str">
         <f>IF(K29&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25420,37 +25432,37 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="B30" s="8">
-        <v>143</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>696</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>454</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>697</v>
+        <v>455</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K30" s="12">
-        <v>17.690000000000001</v>
+        <v>16.774999999999999</v>
       </c>
       <c r="L30" t="str">
         <f>IF(K30&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25462,37 +25474,37 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="B31" s="8">
-        <v>144</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>698</v>
+        <v>34</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>456</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>699</v>
+        <v>457</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K31" s="12">
-        <v>18.3</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="L31" t="str">
         <f>IF(K31&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25504,37 +25516,37 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B32" s="8">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>700</v>
+        <v>458</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>701</v>
+        <v>459</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>663</v>
+        <v>415</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="K32" s="12">
-        <v>18.605</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="L32" t="str">
         <f>IF(K32&gt;29.5,"Mesophotic","Shallow")</f>
@@ -25546,457 +25558,457 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B33" s="8">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>702</v>
+        <v>460</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>703</v>
+        <v>461</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K33" s="12">
-        <v>17.384999999999998</v>
+        <v>31.414999999999999</v>
       </c>
       <c r="L33" t="str">
         <f>IF(K33&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="2">
-        <v>147</v>
+      <c r="A34" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="8">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>704</v>
+        <v>466</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>705</v>
+        <v>467</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K34" s="12">
-        <v>17.995000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="L34" t="str">
         <f>IF(K34&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B35" s="8">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>706</v>
+        <v>468</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>707</v>
+        <v>469</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K35" s="12">
-        <v>17.384999999999998</v>
+        <v>30.805</v>
       </c>
       <c r="L35" t="str">
         <f>IF(K35&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="B36" s="8">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>708</v>
+        <v>470</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>709</v>
+        <v>471</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K36" s="12">
-        <v>17.384999999999998</v>
+        <v>30.5</v>
       </c>
       <c r="L36" t="str">
         <f>IF(K36&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="B37" s="8">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>710</v>
+        <v>472</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>711</v>
+        <v>473</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K37" s="12">
-        <v>17.384999999999998</v>
+        <v>31.11</v>
       </c>
       <c r="L37" t="str">
         <f>IF(K37&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="2" t="s">
-        <v>251</v>
+      <c r="A38" s="2">
+        <v>42</v>
       </c>
       <c r="B38" s="8">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>712</v>
+        <v>474</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>713</v>
+        <v>475</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K38" s="12">
-        <v>17.384999999999998</v>
+        <v>31.11</v>
       </c>
       <c r="L38" t="str">
         <f>IF(K38&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>714</v>
+        <v>476</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>715</v>
+        <v>477</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K39" s="12">
-        <v>17.690000000000001</v>
+        <v>29.585000000000001</v>
       </c>
       <c r="L39" t="str">
         <f>IF(K39&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="B40" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>716</v>
+        <v>478</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>717</v>
+        <v>479</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K40" s="12">
-        <v>17.384999999999998</v>
+        <v>30.805</v>
       </c>
       <c r="L40" t="str">
         <f>IF(K40&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="B41" s="8">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>718</v>
+        <v>480</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>719</v>
+        <v>481</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K41" s="12">
-        <v>17.995000000000001</v>
+        <v>29.89</v>
       </c>
       <c r="L41" t="str">
         <f>IF(K41&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="2">
-        <v>155</v>
+      <c r="A42" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B42" s="8">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>720</v>
+        <v>482</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>721</v>
+        <v>483</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>666</v>
+        <v>464</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="K42" s="12">
-        <v>17.995000000000001</v>
+        <v>29.585000000000001</v>
       </c>
       <c r="L42" t="str">
         <f>IF(K42&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="2">
-        <v>156</v>
+      <c r="A43" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B43" s="8">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>722</v>
+        <v>484</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>723</v>
+        <v>485</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>663</v>
+        <v>486</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>664</v>
+        <v>487</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>666</v>
+        <v>488</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="K43" s="12">
-        <v>18.605</v>
+        <v>19.824999999999999</v>
       </c>
       <c r="L43" t="str">
         <f>IF(K43&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26008,37 +26020,37 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="B44" s="8">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>754</v>
+        <v>490</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>755</v>
+        <v>491</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>756</v>
+        <v>486</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>757</v>
+        <v>487</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>758</v>
+        <v>488</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>759</v>
+        <v>489</v>
       </c>
       <c r="K44" s="12">
-        <v>17.995000000000001</v>
+        <v>20.13</v>
       </c>
       <c r="L44" t="str">
         <f>IF(K44&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26050,163 +26062,163 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B45" s="8">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>389</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="K45" s="12">
-        <v>32.94</v>
+        <v>20.434999999999999</v>
       </c>
       <c r="L45" t="str">
         <f>IF(K45&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
+      <c r="A46" s="2">
+        <v>52</v>
       </c>
       <c r="B46" s="8">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>395</v>
+        <v>494</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>396</v>
+        <v>495</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>389</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="K46" s="12">
-        <v>33.854999999999997</v>
+        <v>20.434999999999999</v>
       </c>
       <c r="L46" t="str">
         <f>IF(K46&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="2">
-        <v>5</v>
+      <c r="A47" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B47" s="8">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>397</v>
+        <v>496</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>398</v>
+        <v>497</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>389</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="K47" s="12">
-        <v>35.380000000000003</v>
+        <v>20.13</v>
       </c>
       <c r="L47" t="str">
         <f>IF(K47&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="2">
-        <v>6</v>
+      <c r="A48" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B48" s="8">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>389</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>390</v>
+        <v>501</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="K48" s="12">
-        <v>35.380000000000003</v>
+        <v>29.585000000000001</v>
       </c>
       <c r="L48" t="str">
         <f>IF(K48&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26217,38 +26229,38 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="2" t="s">
-        <v>19</v>
+      <c r="A49" s="2">
+        <v>55</v>
       </c>
       <c r="B49" s="8">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>389</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>390</v>
+        <v>501</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="K49" s="12">
-        <v>35.380000000000003</v>
+        <v>29.585000000000001</v>
       </c>
       <c r="L49" t="str">
         <f>IF(K49&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26259,38 +26271,38 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="2">
-        <v>8</v>
+      <c r="A50" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B50" s="8">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>403</v>
+        <v>505</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>404</v>
+        <v>506</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>389</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>390</v>
+        <v>501</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="K50" s="12">
-        <v>34.769999999999996</v>
+        <v>30.5</v>
       </c>
       <c r="L50" t="str">
         <f>IF(K50&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26302,79 +26314,79 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B51" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>405</v>
+        <v>507</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>406</v>
+        <v>508</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>386</v>
+        <v>509</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>388</v>
+        <v>510</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>389</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="K51" s="12">
-        <v>33.854999999999997</v>
+        <v>20.74</v>
       </c>
       <c r="L51" t="str">
         <f>IF(K51&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B52" s="8">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>407</v>
+        <v>511</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>408</v>
+        <v>512</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="K52" s="12">
-        <v>32.94</v>
+        <v>33.244999999999997</v>
       </c>
       <c r="L52" t="str">
         <f>IF(K52&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26386,37 +26398,37 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B53" s="8">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>409</v>
+        <v>518</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>410</v>
+        <v>519</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="K53" s="12">
-        <v>34.464999999999996</v>
+        <v>32.94</v>
       </c>
       <c r="L53" t="str">
         <f>IF(K53&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26428,37 +26440,37 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B54" s="8">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>411</v>
+        <v>520</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>412</v>
+        <v>521</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="K54" s="12">
-        <v>36.905000000000001</v>
+        <v>32.94</v>
       </c>
       <c r="L54" t="str">
         <f>IF(K54&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26470,37 +26482,37 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B55" s="8">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K55" s="12">
-        <v>31.414999999999999</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="L55" t="str">
         <f>IF(K55&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26511,38 +26523,38 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="2" t="s">
-        <v>72</v>
+      <c r="A56" s="2">
+        <v>65</v>
       </c>
       <c r="B56" s="8">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K56" s="12">
-        <v>30.5</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="L56" t="str">
         <f>IF(K56&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26553,38 +26565,38 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="2" t="s">
-        <v>75</v>
+      <c r="A57" s="2">
+        <v>66</v>
       </c>
       <c r="B57" s="8">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K57" s="12">
-        <v>30.805</v>
+        <v>33.854999999999997</v>
       </c>
       <c r="L57" t="str">
         <f>IF(K57&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26596,37 +26608,37 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B58" s="8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K58" s="12">
-        <v>30.5</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="L58" t="str">
         <f>IF(K58&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26638,37 +26650,37 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B59" s="8">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K59" s="12">
-        <v>31.11</v>
+        <v>33.854999999999997</v>
       </c>
       <c r="L59" t="str">
         <f>IF(K59&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26680,37 +26692,37 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B60" s="8">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K60" s="12">
-        <v>31.11</v>
+        <v>33.854999999999997</v>
       </c>
       <c r="L60" t="str">
         <f>IF(K60&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26722,37 +26734,37 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B61" s="8">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K61" s="12">
-        <v>29.585000000000001</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="L61" t="str">
         <f>IF(K61&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26764,37 +26776,37 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B62" s="8">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K62" s="12">
-        <v>30.805</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="L62" t="str">
         <f>IF(K62&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26806,37 +26818,37 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B63" s="8">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K63" s="12">
-        <v>29.89</v>
+        <v>33.244999999999997</v>
       </c>
       <c r="L63" t="str">
         <f>IF(K63&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26847,38 +26859,38 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="2" t="s">
-        <v>87</v>
+      <c r="A64" s="2">
+        <v>73</v>
       </c>
       <c r="B64" s="8">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K64" s="12">
-        <v>29.585000000000001</v>
+        <v>32.94</v>
       </c>
       <c r="L64" t="str">
         <f>IF(K64&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26889,38 +26901,38 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="2" t="s">
-        <v>101</v>
+      <c r="A65" s="2">
+        <v>74</v>
       </c>
       <c r="B65" s="8">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K65" s="12">
-        <v>29.585000000000001</v>
+        <v>32.634999999999998</v>
       </c>
       <c r="L65" t="str">
         <f>IF(K65&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26932,37 +26944,37 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B66" s="8">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K66" s="12">
-        <v>29.585000000000001</v>
+        <v>32.634999999999998</v>
       </c>
       <c r="L66" t="str">
         <f>IF(K66&gt;29.5,"Mesophotic","Shallow")</f>
@@ -26973,38 +26985,38 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="2" t="s">
-        <v>105</v>
+      <c r="A67" s="2">
+        <v>76</v>
       </c>
       <c r="B67" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K67" s="12">
-        <v>30.5</v>
+        <v>32.33</v>
       </c>
       <c r="L67" t="str">
         <f>IF(K67&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27015,206 +27027,206 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="2" t="s">
-        <v>34</v>
+      <c r="A68" s="2">
+        <v>77</v>
       </c>
       <c r="B68" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>413</v>
+        <v>548</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>414</v>
+        <v>549</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>415</v>
+        <v>513</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="K68" s="12">
-        <v>16.47</v>
+        <v>32.33</v>
       </c>
       <c r="L68" t="str">
         <f>IF(K68&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="2">
-        <v>15</v>
+      <c r="A69" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B69" s="8">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>421</v>
+        <v>551</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>415</v>
+        <v>513</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="K69" s="12">
-        <v>16.164999999999999</v>
+        <v>31.414999999999999</v>
       </c>
       <c r="L69" t="str">
         <f>IF(K69&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B70" s="8">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>422</v>
+        <v>552</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>423</v>
+        <v>553</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>415</v>
+        <v>513</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="K70" s="12">
-        <v>15.86</v>
+        <v>32.024999999999999</v>
       </c>
       <c r="L70" t="str">
         <f>IF(K70&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B71" s="8">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>424</v>
+        <v>554</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>425</v>
+        <v>555</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>415</v>
+        <v>513</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="K71" s="12">
-        <v>14.64</v>
+        <v>32.024999999999999</v>
       </c>
       <c r="L71" t="str">
         <f>IF(K71&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="2">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B72" s="8">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>426</v>
+        <v>560</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>427</v>
+        <v>561</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K72" s="12">
-        <v>14.64</v>
+        <v>25.62</v>
       </c>
       <c r="L72" t="str">
         <f>IF(K72&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27226,37 +27238,37 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B73" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>429</v>
+        <v>563</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K73" s="12">
-        <v>15.555</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L73" t="str">
         <f>IF(K73&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27268,37 +27280,37 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B74" s="8">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>430</v>
+        <v>564</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>431</v>
+        <v>565</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K74" s="12">
-        <v>12.504999999999999</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L74" t="str">
         <f>IF(K74&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27310,37 +27322,37 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B75" s="8">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>432</v>
+        <v>566</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K75" s="12">
-        <v>15.25</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L75" t="str">
         <f>IF(K75&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27352,37 +27364,37 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B76" s="8">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>434</v>
+        <v>568</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>435</v>
+        <v>569</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K76" s="12">
-        <v>14.945</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L76" t="str">
         <f>IF(K76&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27393,38 +27405,38 @@
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="2">
-        <v>23</v>
+      <c r="A77" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B77" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>436</v>
+        <v>570</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>437</v>
+        <v>571</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K77" s="12">
-        <v>15.86</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L77" t="str">
         <f>IF(K77&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27436,37 +27448,37 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B78" s="8">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>438</v>
+        <v>572</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>439</v>
+        <v>573</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K78" s="12">
-        <v>16.164999999999999</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L78" t="str">
         <f>IF(K78&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27478,37 +27490,37 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B79" s="8">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>440</v>
+        <v>574</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>441</v>
+        <v>575</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K79" s="12">
-        <v>17.079999999999998</v>
+        <v>25.009999999999998</v>
       </c>
       <c r="L79" t="str">
         <f>IF(K79&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27520,37 +27532,37 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="2">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B80" s="8">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>442</v>
+        <v>576</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>443</v>
+        <v>577</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K80" s="12">
-        <v>14.64</v>
+        <v>25.009999999999998</v>
       </c>
       <c r="L80" t="str">
         <f>IF(K80&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27562,37 +27574,37 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="2">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B81" s="8">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>445</v>
+        <v>579</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K81" s="12">
-        <v>13.725</v>
+        <v>25.62</v>
       </c>
       <c r="L81" t="str">
         <f>IF(K81&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27604,37 +27616,37 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="2">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B82" s="8">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>446</v>
+        <v>580</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>447</v>
+        <v>581</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K82" s="12">
-        <v>15.555</v>
+        <v>25.62</v>
       </c>
       <c r="L82" t="str">
         <f>IF(K82&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27645,38 +27657,38 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="2" t="s">
-        <v>57</v>
+      <c r="A83" s="2">
+        <v>94</v>
       </c>
       <c r="B83" s="8">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>448</v>
+        <v>582</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>449</v>
+        <v>583</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K83" s="12">
-        <v>15.555</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L83" t="str">
         <f>IF(K83&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27688,37 +27700,37 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B84" s="8">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>451</v>
+        <v>585</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K84" s="12">
-        <v>15.86</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L84" t="str">
         <f>IF(K84&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27729,38 +27741,38 @@
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="2" t="s">
-        <v>63</v>
+      <c r="A85" s="2">
+        <v>96</v>
       </c>
       <c r="B85" s="8">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>452</v>
+        <v>586</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>453</v>
+        <v>587</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K85" s="12">
-        <v>15.86</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L85" t="str">
         <f>IF(K85&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27771,38 +27783,38 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="2">
-        <v>33</v>
+      <c r="A86" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B86" s="8">
-        <v>33</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>454</v>
+        <v>97</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>588</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>455</v>
+        <v>589</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K86" s="12">
-        <v>16.774999999999999</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L86" t="str">
         <f>IF(K86&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27814,37 +27826,37 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="2">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B87" s="8">
-        <v>34</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>456</v>
+        <v>98</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>590</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>457</v>
+        <v>591</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K87" s="12">
-        <v>17.079999999999998</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L87" t="str">
         <f>IF(K87&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27856,37 +27868,37 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="2">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B88" s="8">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>458</v>
+        <v>592</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>459</v>
+        <v>593</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="K88" s="12">
-        <v>17.079999999999998</v>
+        <v>25.62</v>
       </c>
       <c r="L88" t="str">
         <f>IF(K88&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27897,38 +27909,38 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="2" t="s">
-        <v>91</v>
+      <c r="A89" s="2">
+        <v>100</v>
       </c>
       <c r="B89" s="8">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>485</v>
+        <v>595</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K89" s="12">
-        <v>19.824999999999999</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L89" t="str">
         <f>IF(K89&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27940,37 +27952,37 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="2">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="B90" s="8">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>490</v>
+        <v>596</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>491</v>
+        <v>597</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K90" s="12">
-        <v>20.13</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L90" t="str">
         <f>IF(K90&gt;29.5,"Mesophotic","Shallow")</f>
@@ -27981,38 +27993,38 @@
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="2">
-        <v>50</v>
+      <c r="A91" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B91" s="8">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>492</v>
+        <v>598</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>493</v>
+        <v>599</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K91" s="12">
-        <v>20.434999999999999</v>
+        <v>25.62</v>
       </c>
       <c r="L91" t="str">
         <f>IF(K91&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28024,37 +28036,37 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="2">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B92" s="8">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>494</v>
+        <v>600</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>495</v>
+        <v>601</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K92" s="12">
-        <v>20.434999999999999</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L92" t="str">
         <f>IF(K92&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28065,38 +28077,38 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="2" t="s">
-        <v>98</v>
+      <c r="A93" s="2">
+        <v>104</v>
       </c>
       <c r="B93" s="8">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>496</v>
+        <v>602</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K93" s="12">
-        <v>20.13</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L93" t="str">
         <f>IF(K93&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28108,37 +28120,37 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="2">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B94" s="8">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>507</v>
+        <v>604</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>508</v>
+        <v>605</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>510</v>
+        <v>557</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K94" s="12">
-        <v>20.74</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L94" t="str">
         <f>IF(K94&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28149,80 +28161,80 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="2">
-        <v>61</v>
+      <c r="A95" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B95" s="8">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>512</v>
+        <v>607</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="K95" s="12">
-        <v>33.244999999999997</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L95" t="str">
         <f>IF(K95&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="2">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B96" s="8">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>519</v>
+        <v>609</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K96" s="12">
-        <v>32.94</v>
+        <v>37.21</v>
       </c>
       <c r="L96" t="str">
         <f>IF(K96&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28234,37 +28246,37 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B97" s="8">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>520</v>
+        <v>614</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>521</v>
+        <v>615</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K97" s="12">
-        <v>32.94</v>
+        <v>37.21</v>
       </c>
       <c r="L97" t="str">
         <f>IF(K97&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28275,38 +28287,38 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="2">
-        <v>64</v>
+      <c r="A98" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B98" s="8">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K98" s="12">
-        <v>33.549999999999997</v>
+        <v>37.21</v>
       </c>
       <c r="L98" t="str">
         <f>IF(K98&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28318,37 +28330,37 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="2">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B99" s="8">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K99" s="12">
-        <v>34.159999999999997</v>
+        <v>37.21</v>
       </c>
       <c r="L99" t="str">
         <f>IF(K99&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28359,38 +28371,38 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="2">
-        <v>66</v>
+      <c r="A100" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B100" s="8">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K100" s="12">
-        <v>33.854999999999997</v>
+        <v>37.21</v>
       </c>
       <c r="L100" t="str">
         <f>IF(K100&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28402,37 +28414,37 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="2">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B101" s="8">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>528</v>
+        <v>622</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K101" s="12">
-        <v>34.159999999999997</v>
+        <v>37.21</v>
       </c>
       <c r="L101" t="str">
         <f>IF(K101&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28444,37 +28456,37 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="2">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B102" s="8">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K102" s="12">
-        <v>33.854999999999997</v>
+        <v>37.21</v>
       </c>
       <c r="L102" t="str">
         <f>IF(K102&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28486,37 +28498,37 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="2">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B103" s="8">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K103" s="12">
-        <v>33.854999999999997</v>
+        <v>37.515000000000001</v>
       </c>
       <c r="L103" t="str">
         <f>IF(K103&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28528,37 +28540,37 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="2">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B104" s="8">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K104" s="12">
-        <v>34.159999999999997</v>
+        <v>37.515000000000001</v>
       </c>
       <c r="L104" t="str">
         <f>IF(K104&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28570,37 +28582,37 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="2">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B105" s="8">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K105" s="12">
-        <v>33.549999999999997</v>
+        <v>37.21</v>
       </c>
       <c r="L105" t="str">
         <f>IF(K105&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28612,37 +28624,37 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B106" s="8">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="K106" s="12">
-        <v>33.244999999999997</v>
+        <v>36.905000000000001</v>
       </c>
       <c r="L106" t="str">
         <f>IF(K106&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28654,205 +28666,205 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B107" s="8">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>541</v>
+        <v>635</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>514</v>
+        <v>637</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>516</v>
+        <v>638</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>517</v>
+        <v>639</v>
       </c>
       <c r="K107" s="12">
-        <v>32.94</v>
+        <v>27.754999999999999</v>
       </c>
       <c r="L107" t="str">
         <f>IF(K107&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B108" s="8">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>542</v>
+        <v>640</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>514</v>
+        <v>637</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>516</v>
+        <v>638</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>517</v>
+        <v>639</v>
       </c>
       <c r="K108" s="12">
-        <v>32.634999999999998</v>
+        <v>27.754999999999999</v>
       </c>
       <c r="L108" t="str">
         <f>IF(K108&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B109" s="8">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>544</v>
+        <v>642</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>514</v>
+        <v>637</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>516</v>
+        <v>638</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>517</v>
+        <v>639</v>
       </c>
       <c r="K109" s="12">
-        <v>32.634999999999998</v>
+        <v>27.45</v>
       </c>
       <c r="L109" t="str">
         <f>IF(K109&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B110" s="8">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>547</v>
+        <v>645</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>514</v>
+        <v>637</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>516</v>
+        <v>638</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>517</v>
+        <v>639</v>
       </c>
       <c r="K110" s="12">
-        <v>32.33</v>
+        <v>27.145</v>
       </c>
       <c r="L110" t="str">
         <f>IF(K110&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B111" s="8">
-        <v>77</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>548</v>
+        <v>122</v>
+      </c>
+      <c r="C111" s="14">
+        <v>201908251008</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>549</v>
+        <v>646</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>514</v>
+        <v>648</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>516</v>
+        <v>649</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>517</v>
+        <v>650</v>
       </c>
       <c r="K111" s="12">
-        <v>32.33</v>
+        <v>44.835000000000001</v>
       </c>
       <c r="L111" t="str">
         <f>IF(K111&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28863,38 +28875,38 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="2" t="s">
-        <v>141</v>
+      <c r="A112" s="2">
+        <v>123</v>
       </c>
       <c r="B112" s="8">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>551</v>
+        <v>652</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>514</v>
+        <v>648</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>516</v>
+        <v>649</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>517</v>
+        <v>650</v>
       </c>
       <c r="K112" s="12">
-        <v>31.414999999999999</v>
+        <v>44.225000000000001</v>
       </c>
       <c r="L112" t="str">
         <f>IF(K112&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28906,37 +28918,37 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="2">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B113" s="8">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>552</v>
+        <v>653</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>553</v>
+        <v>654</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>514</v>
+        <v>648</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>516</v>
+        <v>649</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>517</v>
+        <v>650</v>
       </c>
       <c r="K113" s="12">
-        <v>32.024999999999999</v>
+        <v>44.835000000000001</v>
       </c>
       <c r="L113" t="str">
         <f>IF(K113&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28948,37 +28960,37 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="2">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B114" s="8">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>554</v>
+        <v>655</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>555</v>
+        <v>656</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>514</v>
+        <v>648</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>516</v>
+        <v>649</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>517</v>
+        <v>650</v>
       </c>
       <c r="K114" s="12">
-        <v>32.024999999999999</v>
+        <v>44.835000000000001</v>
       </c>
       <c r="L114" t="str">
         <f>IF(K114&gt;29.5,"Mesophotic","Shallow")</f>
@@ -28990,37 +29002,37 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="2">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B115" s="8">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="K115" s="12">
-        <v>37.21</v>
+        <v>44.225000000000001</v>
       </c>
       <c r="L115" t="str">
         <f>IF(K115&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29032,37 +29044,37 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="2">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B116" s="8">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>614</v>
+        <v>659</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>515</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="K116" s="12">
-        <v>37.21</v>
+        <v>43.31</v>
       </c>
       <c r="L116" t="str">
         <f>IF(K116&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29073,668 +29085,668 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="2" t="s">
-        <v>195</v>
+      <c r="A117" s="2">
+        <v>128</v>
       </c>
       <c r="B117" s="8">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K117" s="12">
-        <v>37.21</v>
+        <v>18.3</v>
       </c>
       <c r="L117" t="str">
         <f>IF(K117&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="2">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B118" s="8">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>618</v>
+        <v>668</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K118" s="12">
-        <v>37.21</v>
+        <v>18.3</v>
       </c>
       <c r="L118" t="str">
         <f>IF(K118&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="2" t="s">
-        <v>199</v>
+      <c r="A119" s="2">
+        <v>130</v>
       </c>
       <c r="B119" s="8">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K119" s="12">
-        <v>37.21</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L119" t="str">
         <f>IF(K119&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="2">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B120" s="8">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>623</v>
+        <v>673</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K120" s="12">
-        <v>37.21</v>
+        <v>16.774999999999999</v>
       </c>
       <c r="L120" t="str">
         <f>IF(K120&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B121" s="8">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>624</v>
+        <v>674</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K121" s="12">
-        <v>37.21</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L121" t="str">
         <f>IF(K121&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B122" s="8">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K122" s="12">
-        <v>37.515000000000001</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L122" t="str">
         <f>IF(K122&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="2">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B123" s="8">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K123" s="12">
-        <v>37.515000000000001</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L123" t="str">
         <f>IF(K123&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="2">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B124" s="8">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>631</v>
+        <v>681</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K124" s="12">
-        <v>37.21</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L124" t="str">
         <f>IF(K124&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B125" s="8">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>633</v>
+        <v>683</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="K125" s="12">
-        <v>36.905000000000001</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L125" t="str">
         <f>IF(K125&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B126" s="8">
-        <v>122</v>
-      </c>
-      <c r="C126" s="14">
-        <v>201908251008</v>
+        <v>137</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>684</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="K126" s="12">
-        <v>44.835000000000001</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L126" t="str">
         <f>IF(K126&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B127" s="8">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>651</v>
+        <v>686</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="K127" s="12">
-        <v>44.225000000000001</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L127" t="str">
         <f>IF(K127&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B128" s="8">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="K128" s="12">
-        <v>44.835000000000001</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L128" t="str">
         <f>IF(K128&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B129" s="8">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="K129" s="12">
-        <v>44.835000000000001</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L129" t="str">
         <f>IF(K129&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B130" s="8">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="K130" s="12">
-        <v>44.225000000000001</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L130" t="str">
         <f>IF(K130&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B131" s="8">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="K131" s="12">
-        <v>43.31</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L131" t="str">
         <f>IF(K131&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B132" s="8">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>560</v>
+        <v>696</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>561</v>
+        <v>697</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K132" s="12">
-        <v>25.62</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L132" t="str">
         <f>IF(K132&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29746,37 +29758,37 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B133" s="8">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>562</v>
+        <v>698</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>563</v>
+        <v>699</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K133" s="12">
-        <v>25.314999999999998</v>
+        <v>18.3</v>
       </c>
       <c r="L133" t="str">
         <f>IF(K133&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29788,37 +29800,37 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B134" s="8">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>564</v>
+        <v>700</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>565</v>
+        <v>701</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K134" s="12">
-        <v>25.314999999999998</v>
+        <v>18.605</v>
       </c>
       <c r="L134" t="str">
         <f>IF(K134&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29830,37 +29842,37 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="2">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B135" s="8">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>566</v>
+        <v>702</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>567</v>
+        <v>703</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K135" s="12">
-        <v>25.314999999999998</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L135" t="str">
         <f>IF(K135&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29872,37 +29884,37 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="2">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B136" s="8">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>568</v>
+        <v>704</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>569</v>
+        <v>705</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K136" s="12">
-        <v>25.314999999999998</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L136" t="str">
         <f>IF(K136&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29914,37 +29926,37 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="B137" s="8">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>570</v>
+        <v>706</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>571</v>
+        <v>707</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K137" s="12">
-        <v>25.314999999999998</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L137" t="str">
         <f>IF(K137&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29956,37 +29968,37 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B138" s="8">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>572</v>
+        <v>708</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>573</v>
+        <v>709</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K138" s="12">
-        <v>25.314999999999998</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L138" t="str">
         <f>IF(K138&gt;29.5,"Mesophotic","Shallow")</f>
@@ -29998,37 +30010,37 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B139" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>574</v>
+        <v>710</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>575</v>
+        <v>711</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K139" s="12">
-        <v>25.009999999999998</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L139" t="str">
         <f>IF(K139&gt;29.5,"Mesophotic","Shallow")</f>
@@ -30039,38 +30051,38 @@
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="2">
-        <v>91</v>
+      <c r="A140" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B140" s="8">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>576</v>
+        <v>712</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>577</v>
+        <v>713</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K140" s="12">
-        <v>25.009999999999998</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L140" t="str">
         <f>IF(K140&gt;29.5,"Mesophotic","Shallow")</f>
@@ -30082,37 +30094,37 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="2">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="B141" s="8">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>578</v>
+        <v>714</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>579</v>
+        <v>715</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K141" s="12">
-        <v>25.62</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="L141" t="str">
         <f>IF(K141&gt;29.5,"Mesophotic","Shallow")</f>
@@ -30124,37 +30136,37 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="2">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B142" s="8">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>580</v>
+        <v>716</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>581</v>
+        <v>717</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K142" s="12">
-        <v>25.62</v>
+        <v>17.384999999999998</v>
       </c>
       <c r="L142" t="str">
         <f>IF(K142&gt;29.5,"Mesophotic","Shallow")</f>
@@ -30166,37 +30178,37 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="2">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="B143" s="8">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>582</v>
+        <v>718</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>583</v>
+        <v>719</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K143" s="12">
-        <v>25.314999999999998</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L143" t="str">
         <f>IF(K143&gt;29.5,"Mesophotic","Shallow")</f>
@@ -30208,37 +30220,37 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="2">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B144" s="8">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>584</v>
+        <v>720</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>585</v>
+        <v>721</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K144" s="12">
-        <v>25.314999999999998</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L144" t="str">
         <f>IF(K144&gt;29.5,"Mesophotic","Shallow")</f>
@@ -30250,37 +30262,37 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="2">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="B145" s="8">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>586</v>
+        <v>722</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>587</v>
+        <v>723</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="K145" s="12">
-        <v>25.314999999999998</v>
+        <v>18.605</v>
       </c>
       <c r="L145" t="str">
         <f>IF(K145&gt;29.5,"Mesophotic","Shallow")</f>
@@ -30291,584 +30303,584 @@
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="2" t="s">
-        <v>173</v>
+      <c r="A146" s="2">
+        <v>157</v>
       </c>
       <c r="B146" s="8">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>588</v>
+        <v>724</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>589</v>
+        <v>725</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K146" s="12">
-        <v>25.314999999999998</v>
+        <v>32.634999999999998</v>
       </c>
       <c r="L146" t="str">
         <f>IF(K146&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="2">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B147" s="8">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>590</v>
+        <v>730</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>591</v>
+        <v>731</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K147" s="12">
-        <v>25.314999999999998</v>
+        <v>32.634999999999998</v>
       </c>
       <c r="L147" t="str">
         <f>IF(K147&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B148" s="8">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>592</v>
+        <v>732</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>593</v>
+        <v>733</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F148" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K148" s="12">
-        <v>25.62</v>
+        <v>32.024999999999999</v>
       </c>
       <c r="L148" t="str">
         <f>IF(K148&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="B149" s="8">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>594</v>
+        <v>734</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>595</v>
+        <v>735</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K149" s="12">
-        <v>25.314999999999998</v>
+        <v>32.33</v>
       </c>
       <c r="L149" t="str">
         <f>IF(K149&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="2">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="B150" s="8">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>596</v>
+        <v>736</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>597</v>
+        <v>737</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F150" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K150" s="12">
-        <v>25.314999999999998</v>
+        <v>31.11</v>
       </c>
       <c r="L150" t="str">
         <f>IF(K150&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="2" t="s">
-        <v>182</v>
+      <c r="A151" s="2">
+        <v>162</v>
       </c>
       <c r="B151" s="8">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>598</v>
+        <v>738</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>599</v>
+        <v>739</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K151" s="12">
-        <v>25.62</v>
+        <v>31.11</v>
       </c>
       <c r="L151" t="str">
         <f>IF(K151&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="2">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="B152" s="8">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>601</v>
+        <v>741</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K152" s="12">
-        <v>25.314999999999998</v>
+        <v>30.805</v>
       </c>
       <c r="L152" t="str">
         <f>IF(K152&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="2">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="B153" s="8">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>602</v>
+        <v>742</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>603</v>
+        <v>743</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K153" s="12">
-        <v>25.314999999999998</v>
+        <v>30.195</v>
       </c>
       <c r="L153" t="str">
         <f>IF(K153&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="2">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B154" s="8">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>604</v>
+        <v>744</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>605</v>
+        <v>745</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K154" s="12">
-        <v>25.314999999999998</v>
+        <v>31.11</v>
       </c>
       <c r="L154" t="str">
         <f>IF(K154&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="2" t="s">
-        <v>190</v>
+      <c r="A155" s="2">
+        <v>166</v>
       </c>
       <c r="B155" s="8">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>607</v>
+        <v>747</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>556</v>
+        <v>726</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="K155" s="12">
-        <v>25.314999999999998</v>
+        <v>30.5</v>
       </c>
       <c r="L155" t="str">
         <f>IF(K155&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="2">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B156" s="8">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>634</v>
+        <v>748</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>635</v>
+        <v>749</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="K156" s="12">
-        <v>27.754999999999999</v>
+        <v>31.11</v>
       </c>
       <c r="L156" t="str">
         <f>IF(K156&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="2">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="B157" s="8">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>640</v>
+        <v>750</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>641</v>
+        <v>751</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="K157" s="12">
-        <v>27.754999999999999</v>
+        <v>31.11</v>
       </c>
       <c r="L157" t="str">
         <f>IF(K157&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="2">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="B158" s="8">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>642</v>
+        <v>752</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>643</v>
+        <v>753</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="K158" s="12">
-        <v>27.45</v>
+        <v>31.11</v>
       </c>
       <c r="L158" t="str">
         <f>IF(K158&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="2">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B159" s="8">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>644</v>
+        <v>754</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>645</v>
+        <v>755</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>636</v>
+        <v>756</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>637</v>
+        <v>757</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>515</v>
+        <v>665</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>638</v>
+        <v>758</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>639</v>
+        <v>759</v>
       </c>
       <c r="K159" s="12">
-        <v>27.145</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L159" t="str">
         <f>IF(K159&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31216,373 +31228,373 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B168" s="8">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="H168" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K168" s="12">
-        <v>43.31</v>
+        <v>22.875</v>
       </c>
       <c r="L168" t="str">
         <f>IF(K168&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B169" s="8">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K169" s="12">
-        <v>43.31</v>
+        <v>20.74</v>
       </c>
       <c r="L169" t="str">
         <f>IF(K169&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M169" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B170" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K170" s="12">
-        <v>43.31</v>
+        <v>20.13</v>
       </c>
       <c r="L170" t="str">
         <f>IF(K170&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M170" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B171" s="8">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K171" s="12">
-        <v>43.31</v>
+        <v>20.434999999999999</v>
       </c>
       <c r="L171" t="str">
         <f>IF(K171&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M171" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B172" s="8">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K172" s="12">
-        <v>43.005000000000003</v>
+        <v>20.74</v>
       </c>
       <c r="L172" t="str">
         <f>IF(K172&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M172" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B173" s="8">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K173" s="12">
-        <v>43.005000000000003</v>
+        <v>21.044999999999998</v>
       </c>
       <c r="L173" t="str">
         <f>IF(K173&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M173" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B174" s="8">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="H174" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K174" s="12">
-        <v>43.31</v>
+        <v>20.74</v>
       </c>
       <c r="L174" t="str">
         <f>IF(K174&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M174" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B175" s="8">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>836</v>
+        <v>783</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>837</v>
+        <v>763</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>838</v>
+        <v>784</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>839</v>
+        <v>785</v>
       </c>
       <c r="K175" s="12">
-        <v>42.699999999999996</v>
+        <v>21.044999999999998</v>
       </c>
       <c r="L175" t="str">
         <f>IF(K175&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M175" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="2" t="s">
-        <v>326</v>
+      <c r="A176" s="2">
+        <v>187</v>
       </c>
       <c r="B176" s="8">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="H176" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="K176" s="12">
-        <v>43.005000000000003</v>
+        <v>43.31</v>
       </c>
       <c r="L176" t="str">
         <f>IF(K176&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31594,37 +31606,37 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B177" s="8">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="K177" s="12">
-        <v>40.869999999999997</v>
+        <v>43.31</v>
       </c>
       <c r="L177" t="str">
         <f>IF(K177&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31636,37 +31648,37 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B178" s="8">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>844</v>
+        <v>808</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>845</v>
+        <v>809</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="F178" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="H178" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="K178" s="12">
-        <v>40.869999999999997</v>
+        <v>43.31</v>
       </c>
       <c r="L178" t="str">
         <f>IF(K178&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31678,37 +31690,37 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="2">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B179" s="8">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="H179" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="K179" s="12">
-        <v>41.784999999999997</v>
+        <v>43.31</v>
       </c>
       <c r="L179" t="str">
         <f>IF(K179&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31720,37 +31732,37 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="2">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B180" s="8">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>848</v>
+        <v>812</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="F180" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="K180" s="12">
-        <v>43.615000000000002</v>
+        <v>43.005000000000003</v>
       </c>
       <c r="L180" t="str">
         <f>IF(K180&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31762,37 +31774,37 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="2">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B181" s="8">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>850</v>
+        <v>814</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="F181" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="K181" s="12">
-        <v>43.31</v>
+        <v>43.005000000000003</v>
       </c>
       <c r="L181" t="str">
         <f>IF(K181&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31804,37 +31816,37 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B182" s="8">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>852</v>
+        <v>816</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="F182" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="K182" s="12">
-        <v>43.615000000000002</v>
+        <v>43.31</v>
       </c>
       <c r="L182" t="str">
         <f>IF(K182&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31846,121 +31858,121 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B183" s="8">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>855</v>
+        <v>819</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="K183" s="12">
-        <v>44.225000000000001</v>
+        <v>18.91</v>
       </c>
       <c r="L183" t="str">
         <f>IF(K183&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M183" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B184" s="8">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="F184" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="H184" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="K184" s="12">
-        <v>45.14</v>
+        <v>19.215</v>
       </c>
       <c r="L184" t="str">
         <f>IF(K184&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Mesophotic</v>
+        <v>Shallow</v>
       </c>
       <c r="M184" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="2">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B185" s="8">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>781</v>
+        <v>826</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="K185" s="12">
-        <v>22.875</v>
+        <v>18.605</v>
       </c>
       <c r="L185" t="str">
         <f>IF(K185&gt;29.5,"Mesophotic","Shallow")</f>
@@ -31971,38 +31983,38 @@
       </c>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="2">
-        <v>180</v>
+      <c r="A186" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B186" s="8">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
       <c r="F186" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="K186" s="12">
-        <v>20.74</v>
+        <v>18.3</v>
       </c>
       <c r="L186" t="str">
         <f>IF(K186&gt;29.5,"Mesophotic","Shallow")</f>
@@ -32014,37 +32026,37 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B187" s="8">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
       <c r="F187" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="H187" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="K187" s="12">
-        <v>20.13</v>
+        <v>18.605</v>
       </c>
       <c r="L187" t="str">
         <f>IF(K187&gt;29.5,"Mesophotic","Shallow")</f>
@@ -32056,37 +32068,37 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B188" s="8">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
       <c r="F188" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="H188" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="K188" s="12">
-        <v>20.434999999999999</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="L188" t="str">
         <f>IF(K188&gt;29.5,"Mesophotic","Shallow")</f>
@@ -32098,422 +32110,422 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="2">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B189" s="8">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="F189" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="K189" s="12">
-        <v>20.74</v>
+        <v>42.699999999999996</v>
       </c>
       <c r="L189" t="str">
         <f>IF(K189&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M189" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="2">
-        <v>184</v>
+      <c r="A190" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B190" s="8">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>794</v>
+        <v>840</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>795</v>
+        <v>841</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="F190" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="H190" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="K190" s="12">
-        <v>21.044999999999998</v>
+        <v>43.005000000000003</v>
       </c>
       <c r="L190" t="str">
         <f>IF(K190&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M190" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="2">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B191" s="8">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>796</v>
+        <v>842</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>797</v>
+        <v>843</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="F191" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="K191" s="12">
-        <v>20.74</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="L191" t="str">
         <f>IF(K191&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M191" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="2">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B192" s="8">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>798</v>
+        <v>844</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>799</v>
+        <v>845</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="K192" s="12">
-        <v>21.044999999999998</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="L192" t="str">
         <f>IF(K192&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M192" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B193" s="8">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I193" s="9" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="J193" s="9" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="K193" s="12">
-        <v>18.91</v>
+        <v>41.784999999999997</v>
       </c>
       <c r="L193" t="str">
         <f>IF(K193&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M193" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B194" s="8">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="J194" s="9" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="K194" s="12">
-        <v>19.215</v>
+        <v>43.615000000000002</v>
       </c>
       <c r="L194" t="str">
         <f>IF(K194&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M194" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B195" s="8">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="H195" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="K195" s="12">
-        <v>18.605</v>
+        <v>43.31</v>
       </c>
       <c r="L195" t="str">
         <f>IF(K195&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M195" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="2" t="s">
-        <v>320</v>
+      <c r="A196" s="2">
+        <v>214</v>
       </c>
       <c r="B196" s="8">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="H196" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="J196" s="9" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="K196" s="12">
-        <v>18.3</v>
+        <v>43.615000000000002</v>
       </c>
       <c r="L196" t="str">
         <f>IF(K196&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M196" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="2">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B197" s="8">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="H197" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="J197" s="9" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="K197" s="27">
-        <v>18.605</v>
+        <v>44.225000000000001</v>
       </c>
       <c r="L197" t="str">
         <f>IF(K197&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M197" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B198" s="8">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>387</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="H198" s="9" t="s">
         <v>764</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="J198" s="9" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="K198" s="12">
-        <v>17.995000000000001</v>
+        <v>45.14</v>
       </c>
       <c r="L198" t="str">
         <f>IF(K198&gt;29.5,"Mesophotic","Shallow")</f>
-        <v>Shallow</v>
+        <v>Mesophotic</v>
       </c>
       <c r="M198" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -33273,9 +33285,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M217">
-    <sortCondition ref="H2:H217"/>
-    <sortCondition ref="L2:L217"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M216">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33737,10 +33748,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3E58A-DDA0-0945-B24A-1A869F342A4A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33749,7 +33760,7 @@
     <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
         <v>917</v>
       </c>
@@ -33759,8 +33770,14 @@
       <c r="C1" s="26" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
         <v>515</v>
       </c>
@@ -33768,7 +33785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="24" t="s">
         <v>907</v>
       </c>
@@ -33778,8 +33795,12 @@
       <c r="C3">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f>C3-B$17</f>
+        <v>8.5000000000000036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="24" t="s">
         <v>908</v>
       </c>
@@ -33793,8 +33814,12 @@
         <f>C3-C4</f>
         <v>10.700000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f>C4-B$17</f>
+        <v>-2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
         <v>389</v>
       </c>
@@ -33802,7 +33827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="24" t="s">
         <v>907</v>
       </c>
@@ -33812,8 +33837,12 @@
       <c r="C6">
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f>C6-B$17</f>
+        <v>4.5000000000000036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="24" t="s">
         <v>908</v>
       </c>
@@ -33827,8 +33856,12 @@
         <f>C6-C7</f>
         <v>15.600000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f>C7-B$17</f>
+        <v>-11.099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="22" t="s">
         <v>665</v>
       </c>
@@ -33836,7 +33869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="24" t="s">
         <v>907</v>
       </c>
@@ -33846,8 +33879,12 @@
       <c r="C9">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f>C9-B$17</f>
+        <v>3.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="24" t="s">
         <v>908</v>
       </c>
@@ -33861,8 +33898,12 @@
         <f>C9-C10</f>
         <v>13.599999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f>C10-B$17</f>
+        <v>-9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="22" t="s">
         <v>764</v>
       </c>
@@ -33870,7 +33911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="24" t="s">
         <v>907</v>
       </c>
@@ -33880,8 +33921,12 @@
       <c r="C12">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f>C12-B$17</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="24" t="s">
         <v>908</v>
       </c>
@@ -33895,14 +33940,73 @@
         <f>C12-C13</f>
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f>C13-B$17</f>
+        <v>-4.0999999999999979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="22" t="s">
         <v>906</v>
       </c>
       <c r="B14" s="22">
         <f>SUM(B2,B5,B8,B11)</f>
         <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21">
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27">
+        <v>-4.0999999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/data/fkSequencedSamples.xlsx
+++ b/data/fkSequencedSamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/floridaKeysMcavSnp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E341D5A-26C1-9D47-9040-E02DA6F2A163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C773B-E719-A245-92AD-8F586D48B8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" firstSheet="2" activeTab="10" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" firstSheet="2" activeTab="4" xr2:uid="{3A336D70-C13B-A44C-BBF0-1C312DC9EABB}"/>
   </bookViews>
   <sheets>
     <sheet name="mcavCollected" sheetId="9" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId12"/>
-    <pivotCache cacheId="27" r:id="rId13"/>
-    <pivotCache cacheId="33" r:id="rId14"/>
+    <pivotCache cacheId="50" r:id="rId12"/>
+    <pivotCache cacheId="51" r:id="rId13"/>
+    <pivotCache cacheId="52" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3568,25 +3568,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3619,17 +3600,36 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="double">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -14415,7 +14415,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4E85903-1F26-A84E-A9E0-0C61FA9D15E6}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4E85903-1F26-A84E-A9E0-0C61FA9D15E6}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0">
@@ -15067,7 +15067,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DAF1B92-F2DF-AC4C-BE1B-F5B9E5D220A0}" name="PivotTable4" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DAF1B92-F2DF-AC4C-BE1B-F5B9E5D220A0}" name="PivotTable4" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -15263,7 +15263,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094B44C8-5797-8E4B-8DC6-4F29CBB5E445}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -15655,18 +15655,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19EECAD0-AE37-B542-96B3-B7B9C975D81B}" name="Table1" displayName="Table1" ref="A1:I30" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19EECAD0-AE37-B542-96B3-B7B9C975D81B}" name="Table1" displayName="Table1" ref="A1:I30" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:I30" xr:uid="{54358DC0-0806-AC43-ABE4-5BB5925437FC}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A9A21166-71C1-A244-9C38-94750C13D069}" name="Location" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EB300E53-E05C-2A47-ABC9-74EBC19CC43F}" name="Sample Population" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{877D1838-A58D-D748-8479-8FFCA239EDAE}" name="Average Depth (m)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2294AE3E-E311-6741-A215-ECBB01E959BF}" name="Site" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{55C11A29-4883-8C40-8524-A98EEA616069}" name="nc" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{AF0ACEEC-7536-B145-BAC3-72B869FE4B45}" name="na" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{3A290403-8778-974B-96BA-F18563F74F99}" name="ng" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{D6F01560-8984-6B4B-A7CE-ECD07FDDABD4}" name="Latitude" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{ABDBE624-8C78-4640-9BAA-BCA578E0F29C}" name="Longitude" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A9A21166-71C1-A244-9C38-94750C13D069}" name="Location" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EB300E53-E05C-2A47-ABC9-74EBC19CC43F}" name="Sample Population" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{877D1838-A58D-D748-8479-8FFCA239EDAE}" name="Average Depth (m)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2294AE3E-E311-6741-A215-ECBB01E959BF}" name="Site" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{55C11A29-4883-8C40-8524-A98EEA616069}" name="nc" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{AF0ACEEC-7536-B145-BAC3-72B869FE4B45}" name="na" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{3A290403-8778-974B-96BA-F18563F74F99}" name="ng" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D6F01560-8984-6B4B-A7CE-ECD07FDDABD4}" name="Latitude" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{ABDBE624-8C78-4640-9BAA-BCA578E0F29C}" name="Longitude" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -45510,7 +45510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81171E-E1FB-0341-853E-AB47649729A5}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
@@ -54303,11 +54303,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB995F32-52D5-464D-A1EA-04C7AE1F2C0E}">
   <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L207" sqref="L207"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
@@ -63701,7 +63704,7 @@
         <v>32.94</v>
       </c>
       <c r="L2" t="str">
-        <f>IF(K2&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" ref="L2:L65" si="0">IF(K2&gt;29.5,"Mesophotic","Shallow")</f>
         <v>Mesophotic</v>
       </c>
       <c r="M2" s="11" t="s">
@@ -63743,7 +63746,7 @@
         <v>33.854999999999997</v>
       </c>
       <c r="L3" t="str">
-        <f>IF(K3&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M3" s="11" t="s">
@@ -63785,7 +63788,7 @@
         <v>35.380000000000003</v>
       </c>
       <c r="L4" t="str">
-        <f>IF(K4&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M4" s="11" t="s">
@@ -63827,7 +63830,7 @@
         <v>35.380000000000003</v>
       </c>
       <c r="L5" t="str">
-        <f>IF(K5&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M5" s="11" t="s">
@@ -63869,7 +63872,7 @@
         <v>35.380000000000003</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(K6&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M6" s="9" t="s">
@@ -63911,7 +63914,7 @@
         <v>34.769999999999996</v>
       </c>
       <c r="L7" t="str">
-        <f>IF(K7&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -63953,7 +63956,7 @@
         <v>33.854999999999997</v>
       </c>
       <c r="L8" t="str">
-        <f>IF(K8&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M8" s="9" t="s">
@@ -63995,7 +63998,7 @@
         <v>32.94</v>
       </c>
       <c r="L9" t="str">
-        <f>IF(K9&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -64037,7 +64040,7 @@
         <v>34.464999999999996</v>
       </c>
       <c r="L10" t="str">
-        <f>IF(K10&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -64079,7 +64082,7 @@
         <v>36.905000000000001</v>
       </c>
       <c r="L11" t="str">
-        <f>IF(K11&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M11" s="9" t="s">
@@ -64121,7 +64124,7 @@
         <v>16.47</v>
       </c>
       <c r="L12" t="str">
-        <f>IF(K12&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M12" s="9" t="s">
@@ -64163,7 +64166,7 @@
         <v>16.164999999999999</v>
       </c>
       <c r="L13" t="str">
-        <f>IF(K13&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -64205,7 +64208,7 @@
         <v>15.86</v>
       </c>
       <c r="L14" t="str">
-        <f>IF(K14&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M14" s="9" t="s">
@@ -64247,7 +64250,7 @@
         <v>14.64</v>
       </c>
       <c r="L15" t="str">
-        <f>IF(K15&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -64289,7 +64292,7 @@
         <v>14.64</v>
       </c>
       <c r="L16" t="str">
-        <f>IF(K16&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M16" s="9" t="s">
@@ -64331,7 +64334,7 @@
         <v>15.555</v>
       </c>
       <c r="L17" t="str">
-        <f>IF(K17&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M17" s="9" t="s">
@@ -64373,7 +64376,7 @@
         <v>12.504999999999999</v>
       </c>
       <c r="L18" t="str">
-        <f>IF(K18&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M18" s="9" t="s">
@@ -64415,7 +64418,7 @@
         <v>15.25</v>
       </c>
       <c r="L19" t="str">
-        <f>IF(K19&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M19" s="9" t="s">
@@ -64457,7 +64460,7 @@
         <v>14.945</v>
       </c>
       <c r="L20" t="str">
-        <f>IF(K20&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -64499,7 +64502,7 @@
         <v>15.86</v>
       </c>
       <c r="L21" t="str">
-        <f>IF(K21&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M21" s="9" t="s">
@@ -64541,7 +64544,7 @@
         <v>16.164999999999999</v>
       </c>
       <c r="L22" t="str">
-        <f>IF(K22&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M22" s="9" t="s">
@@ -64583,7 +64586,7 @@
         <v>17.079999999999998</v>
       </c>
       <c r="L23" t="str">
-        <f>IF(K23&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M23" s="9" t="s">
@@ -64625,7 +64628,7 @@
         <v>14.64</v>
       </c>
       <c r="L24" t="str">
-        <f>IF(K24&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -64667,7 +64670,7 @@
         <v>13.725</v>
       </c>
       <c r="L25" t="str">
-        <f>IF(K25&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M25" s="9" t="s">
@@ -64709,7 +64712,7 @@
         <v>15.555</v>
       </c>
       <c r="L26" t="str">
-        <f>IF(K26&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M26" s="9" t="s">
@@ -64751,7 +64754,7 @@
         <v>15.555</v>
       </c>
       <c r="L27" t="str">
-        <f>IF(K27&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M27" s="9" t="s">
@@ -64793,7 +64796,7 @@
         <v>15.86</v>
       </c>
       <c r="L28" t="str">
-        <f>IF(K28&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M28" s="9" t="s">
@@ -64835,7 +64838,7 @@
         <v>15.86</v>
       </c>
       <c r="L29" t="str">
-        <f>IF(K29&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M29" s="9" t="s">
@@ -64877,7 +64880,7 @@
         <v>16.774999999999999</v>
       </c>
       <c r="L30" t="str">
-        <f>IF(K30&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M30" s="9" t="s">
@@ -64919,7 +64922,7 @@
         <v>17.079999999999998</v>
       </c>
       <c r="L31" t="str">
-        <f>IF(K31&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M31" s="9" t="s">
@@ -64961,7 +64964,7 @@
         <v>17.079999999999998</v>
       </c>
       <c r="L32" t="str">
-        <f>IF(K32&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M32" s="9" t="s">
@@ -65003,7 +65006,7 @@
         <v>31.414999999999999</v>
       </c>
       <c r="L33" t="str">
-        <f>IF(K33&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M33" s="9" t="s">
@@ -65045,7 +65048,7 @@
         <v>30.5</v>
       </c>
       <c r="L34" t="str">
-        <f>IF(K34&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M34" s="9" t="s">
@@ -65087,7 +65090,7 @@
         <v>30.805</v>
       </c>
       <c r="L35" t="str">
-        <f>IF(K35&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M35" s="9" t="s">
@@ -65129,7 +65132,7 @@
         <v>30.5</v>
       </c>
       <c r="L36" t="str">
-        <f>IF(K36&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M36" s="9" t="s">
@@ -65171,7 +65174,7 @@
         <v>31.11</v>
       </c>
       <c r="L37" t="str">
-        <f>IF(K37&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M37" s="9" t="s">
@@ -65213,7 +65216,7 @@
         <v>31.11</v>
       </c>
       <c r="L38" t="str">
-        <f>IF(K38&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M38" s="9" t="s">
@@ -65255,7 +65258,7 @@
         <v>29.585000000000001</v>
       </c>
       <c r="L39" t="str">
-        <f>IF(K39&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M39" s="9" t="s">
@@ -65297,7 +65300,7 @@
         <v>30.805</v>
       </c>
       <c r="L40" t="str">
-        <f>IF(K40&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M40" s="9" t="s">
@@ -65339,7 +65342,7 @@
         <v>29.89</v>
       </c>
       <c r="L41" t="str">
-        <f>IF(K41&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M41" s="9" t="s">
@@ -65381,7 +65384,7 @@
         <v>29.585000000000001</v>
       </c>
       <c r="L42" t="str">
-        <f>IF(K42&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M42" s="9" t="s">
@@ -65423,7 +65426,7 @@
         <v>19.824999999999999</v>
       </c>
       <c r="L43" t="str">
-        <f>IF(K43&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M43" s="9" t="s">
@@ -65465,7 +65468,7 @@
         <v>20.13</v>
       </c>
       <c r="L44" t="str">
-        <f>IF(K44&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M44" s="9" t="s">
@@ -65507,7 +65510,7 @@
         <v>20.434999999999999</v>
       </c>
       <c r="L45" t="str">
-        <f>IF(K45&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M45" s="9" t="s">
@@ -65549,7 +65552,7 @@
         <v>20.434999999999999</v>
       </c>
       <c r="L46" t="str">
-        <f>IF(K46&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M46" s="9" t="s">
@@ -65591,7 +65594,7 @@
         <v>20.13</v>
       </c>
       <c r="L47" t="str">
-        <f>IF(K47&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M47" s="9" t="s">
@@ -65633,7 +65636,7 @@
         <v>29.585000000000001</v>
       </c>
       <c r="L48" t="str">
-        <f>IF(K48&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M48" s="9" t="s">
@@ -65675,7 +65678,7 @@
         <v>29.585000000000001</v>
       </c>
       <c r="L49" t="str">
-        <f>IF(K49&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M49" s="9" t="s">
@@ -65717,7 +65720,7 @@
         <v>30.5</v>
       </c>
       <c r="L50" t="str">
-        <f>IF(K50&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M50" s="9" t="s">
@@ -65759,7 +65762,7 @@
         <v>20.74</v>
       </c>
       <c r="L51" t="str">
-        <f>IF(K51&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Shallow</v>
       </c>
       <c r="M51" s="9" t="s">
@@ -65801,7 +65804,7 @@
         <v>33.244999999999997</v>
       </c>
       <c r="L52" t="str">
-        <f>IF(K52&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M52" s="9" t="s">
@@ -65843,7 +65846,7 @@
         <v>32.94</v>
       </c>
       <c r="L53" t="str">
-        <f>IF(K53&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M53" s="9" t="s">
@@ -65885,7 +65888,7 @@
         <v>32.94</v>
       </c>
       <c r="L54" t="str">
-        <f>IF(K54&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M54" s="9" t="s">
@@ -65927,7 +65930,7 @@
         <v>33.549999999999997</v>
       </c>
       <c r="L55" t="str">
-        <f>IF(K55&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M55" s="9" t="s">
@@ -65969,7 +65972,7 @@
         <v>34.159999999999997</v>
       </c>
       <c r="L56" t="str">
-        <f>IF(K56&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M56" s="9" t="s">
@@ -66011,7 +66014,7 @@
         <v>33.854999999999997</v>
       </c>
       <c r="L57" t="str">
-        <f>IF(K57&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M57" s="9" t="s">
@@ -66053,7 +66056,7 @@
         <v>34.159999999999997</v>
       </c>
       <c r="L58" t="str">
-        <f>IF(K58&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M58" s="9" t="s">
@@ -66095,7 +66098,7 @@
         <v>33.854999999999997</v>
       </c>
       <c r="L59" t="str">
-        <f>IF(K59&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M59" s="9" t="s">
@@ -66137,7 +66140,7 @@
         <v>33.854999999999997</v>
       </c>
       <c r="L60" t="str">
-        <f>IF(K60&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M60" s="9" t="s">
@@ -66179,7 +66182,7 @@
         <v>34.159999999999997</v>
       </c>
       <c r="L61" t="str">
-        <f>IF(K61&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M61" s="9" t="s">
@@ -66221,7 +66224,7 @@
         <v>33.549999999999997</v>
       </c>
       <c r="L62" t="str">
-        <f>IF(K62&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M62" s="9" t="s">
@@ -66263,7 +66266,7 @@
         <v>33.244999999999997</v>
       </c>
       <c r="L63" t="str">
-        <f>IF(K63&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M63" s="9" t="s">
@@ -66305,7 +66308,7 @@
         <v>32.94</v>
       </c>
       <c r="L64" t="str">
-        <f>IF(K64&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M64" s="9" t="s">
@@ -66347,7 +66350,7 @@
         <v>32.634999999999998</v>
       </c>
       <c r="L65" t="str">
-        <f>IF(K65&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="0"/>
         <v>Mesophotic</v>
       </c>
       <c r="M65" s="9" t="s">
@@ -66389,7 +66392,7 @@
         <v>32.634999999999998</v>
       </c>
       <c r="L66" t="str">
-        <f>IF(K66&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" ref="L66:L129" si="1">IF(K66&gt;29.5,"Mesophotic","Shallow")</f>
         <v>Mesophotic</v>
       </c>
       <c r="M66" s="9" t="s">
@@ -66431,7 +66434,7 @@
         <v>32.33</v>
       </c>
       <c r="L67" t="str">
-        <f>IF(K67&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M67" s="9" t="s">
@@ -66473,7 +66476,7 @@
         <v>32.33</v>
       </c>
       <c r="L68" t="str">
-        <f>IF(K68&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M68" s="9" t="s">
@@ -66515,7 +66518,7 @@
         <v>31.414999999999999</v>
       </c>
       <c r="L69" t="str">
-        <f>IF(K69&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M69" s="9" t="s">
@@ -66557,7 +66560,7 @@
         <v>32.024999999999999</v>
       </c>
       <c r="L70" t="str">
-        <f>IF(K70&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M70" s="9" t="s">
@@ -66599,7 +66602,7 @@
         <v>32.024999999999999</v>
       </c>
       <c r="L71" t="str">
-        <f>IF(K71&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M71" s="9" t="s">
@@ -66641,7 +66644,7 @@
         <v>25.62</v>
       </c>
       <c r="L72" t="str">
-        <f>IF(K72&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M72" s="9" t="s">
@@ -66683,7 +66686,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L73" t="str">
-        <f>IF(K73&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M73" s="9" t="s">
@@ -66725,7 +66728,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L74" t="str">
-        <f>IF(K74&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M74" s="9" t="s">
@@ -66767,7 +66770,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L75" t="str">
-        <f>IF(K75&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M75" s="9" t="s">
@@ -66809,7 +66812,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L76" t="str">
-        <f>IF(K76&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M76" s="9" t="s">
@@ -66851,7 +66854,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L77" t="str">
-        <f>IF(K77&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M77" s="9" t="s">
@@ -66893,7 +66896,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L78" t="str">
-        <f>IF(K78&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M78" s="9" t="s">
@@ -66935,7 +66938,7 @@
         <v>25.009999999999998</v>
       </c>
       <c r="L79" t="str">
-        <f>IF(K79&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M79" s="9" t="s">
@@ -66977,7 +66980,7 @@
         <v>25.009999999999998</v>
       </c>
       <c r="L80" t="str">
-        <f>IF(K80&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M80" s="9" t="s">
@@ -67019,7 +67022,7 @@
         <v>25.62</v>
       </c>
       <c r="L81" t="str">
-        <f>IF(K81&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M81" s="9" t="s">
@@ -67061,7 +67064,7 @@
         <v>25.62</v>
       </c>
       <c r="L82" t="str">
-        <f>IF(K82&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M82" s="9" t="s">
@@ -67103,7 +67106,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L83" t="str">
-        <f>IF(K83&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M83" s="9" t="s">
@@ -67145,7 +67148,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L84" t="str">
-        <f>IF(K84&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M84" s="9" t="s">
@@ -67187,7 +67190,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L85" t="str">
-        <f>IF(K85&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M85" s="9" t="s">
@@ -67229,7 +67232,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L86" t="str">
-        <f>IF(K86&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M86" s="9" t="s">
@@ -67271,7 +67274,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L87" t="str">
-        <f>IF(K87&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M87" s="9" t="s">
@@ -67313,7 +67316,7 @@
         <v>25.62</v>
       </c>
       <c r="L88" t="str">
-        <f>IF(K88&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M88" s="9" t="s">
@@ -67355,7 +67358,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L89" t="str">
-        <f>IF(K89&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M89" s="9" t="s">
@@ -67397,7 +67400,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L90" t="str">
-        <f>IF(K90&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M90" s="9" t="s">
@@ -67439,7 +67442,7 @@
         <v>25.62</v>
       </c>
       <c r="L91" t="str">
-        <f>IF(K91&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M91" s="9" t="s">
@@ -67481,7 +67484,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L92" t="str">
-        <f>IF(K92&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M92" s="9" t="s">
@@ -67523,7 +67526,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L93" t="str">
-        <f>IF(K93&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M93" s="9" t="s">
@@ -67565,7 +67568,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L94" t="str">
-        <f>IF(K94&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M94" s="9" t="s">
@@ -67607,7 +67610,7 @@
         <v>25.314999999999998</v>
       </c>
       <c r="L95" t="str">
-        <f>IF(K95&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M95" s="9" t="s">
@@ -67649,7 +67652,7 @@
         <v>37.21</v>
       </c>
       <c r="L96" t="str">
-        <f>IF(K96&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M96" s="9" t="s">
@@ -67691,7 +67694,7 @@
         <v>37.21</v>
       </c>
       <c r="L97" t="str">
-        <f>IF(K97&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M97" s="9" t="s">
@@ -67733,7 +67736,7 @@
         <v>37.21</v>
       </c>
       <c r="L98" t="str">
-        <f>IF(K98&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M98" s="9" t="s">
@@ -67775,7 +67778,7 @@
         <v>37.21</v>
       </c>
       <c r="L99" t="str">
-        <f>IF(K99&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M99" s="9" t="s">
@@ -67817,7 +67820,7 @@
         <v>37.21</v>
       </c>
       <c r="L100" t="str">
-        <f>IF(K100&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M100" s="9" t="s">
@@ -67859,7 +67862,7 @@
         <v>37.21</v>
       </c>
       <c r="L101" t="str">
-        <f>IF(K101&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M101" s="9" t="s">
@@ -67901,7 +67904,7 @@
         <v>37.21</v>
       </c>
       <c r="L102" t="str">
-        <f>IF(K102&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M102" s="9" t="s">
@@ -67943,7 +67946,7 @@
         <v>37.515000000000001</v>
       </c>
       <c r="L103" t="str">
-        <f>IF(K103&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M103" s="9" t="s">
@@ -67985,7 +67988,7 @@
         <v>37.515000000000001</v>
       </c>
       <c r="L104" t="str">
-        <f>IF(K104&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M104" s="9" t="s">
@@ -68027,7 +68030,7 @@
         <v>37.21</v>
       </c>
       <c r="L105" t="str">
-        <f>IF(K105&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M105" s="9" t="s">
@@ -68069,7 +68072,7 @@
         <v>36.905000000000001</v>
       </c>
       <c r="L106" t="str">
-        <f>IF(K106&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M106" s="9" t="s">
@@ -68111,7 +68114,7 @@
         <v>27.754999999999999</v>
       </c>
       <c r="L107" t="str">
-        <f>IF(K107&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M107" s="9" t="s">
@@ -68153,7 +68156,7 @@
         <v>27.754999999999999</v>
       </c>
       <c r="L108" t="str">
-        <f>IF(K108&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M108" s="9" t="s">
@@ -68195,7 +68198,7 @@
         <v>27.45</v>
       </c>
       <c r="L109" t="str">
-        <f>IF(K109&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M109" s="9" t="s">
@@ -68237,7 +68240,7 @@
         <v>27.145</v>
       </c>
       <c r="L110" t="str">
-        <f>IF(K110&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M110" s="9" t="s">
@@ -68279,7 +68282,7 @@
         <v>44.835000000000001</v>
       </c>
       <c r="L111" t="str">
-        <f>IF(K111&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M111" s="9" t="s">
@@ -68321,7 +68324,7 @@
         <v>44.225000000000001</v>
       </c>
       <c r="L112" t="str">
-        <f>IF(K112&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M112" s="9" t="s">
@@ -68363,7 +68366,7 @@
         <v>44.835000000000001</v>
       </c>
       <c r="L113" t="str">
-        <f>IF(K113&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M113" s="9" t="s">
@@ -68405,7 +68408,7 @@
         <v>44.835000000000001</v>
       </c>
       <c r="L114" t="str">
-        <f>IF(K114&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M114" s="9" t="s">
@@ -68447,7 +68450,7 @@
         <v>44.225000000000001</v>
       </c>
       <c r="L115" t="str">
-        <f>IF(K115&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M115" s="9" t="s">
@@ -68489,7 +68492,7 @@
         <v>43.31</v>
       </c>
       <c r="L116" t="str">
-        <f>IF(K116&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Mesophotic</v>
       </c>
       <c r="M116" s="9" t="s">
@@ -68531,7 +68534,7 @@
         <v>18.3</v>
       </c>
       <c r="L117" t="str">
-        <f>IF(K117&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M117" s="9" t="s">
@@ -68573,7 +68576,7 @@
         <v>18.3</v>
       </c>
       <c r="L118" t="str">
-        <f>IF(K118&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M118" s="9" t="s">
@@ -68615,7 +68618,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L119" t="str">
-        <f>IF(K119&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M119" s="9" t="s">
@@ -68657,7 +68660,7 @@
         <v>16.774999999999999</v>
       </c>
       <c r="L120" t="str">
-        <f>IF(K120&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M120" s="9" t="s">
@@ -68699,7 +68702,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L121" t="str">
-        <f>IF(K121&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M121" s="9" t="s">
@@ -68741,7 +68744,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L122" t="str">
-        <f>IF(K122&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M122" s="9" t="s">
@@ -68783,7 +68786,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L123" t="str">
-        <f>IF(K123&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M123" s="9" t="s">
@@ -68825,7 +68828,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="L124" t="str">
-        <f>IF(K124&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M124" s="9" t="s">
@@ -68867,7 +68870,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="L125" t="str">
-        <f>IF(K125&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M125" s="9" t="s">
@@ -68909,7 +68912,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="L126" t="str">
-        <f>IF(K126&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M126" s="9" t="s">
@@ -68951,7 +68954,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="L127" t="str">
-        <f>IF(K127&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M127" s="9" t="s">
@@ -68993,7 +68996,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L128" t="str">
-        <f>IF(K128&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M128" s="9" t="s">
@@ -69035,7 +69038,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="L129" t="str">
-        <f>IF(K129&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="1"/>
         <v>Shallow</v>
       </c>
       <c r="M129" s="9" t="s">
@@ -69077,7 +69080,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L130" t="str">
-        <f>IF(K130&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" ref="L130:L193" si="2">IF(K130&gt;29.5,"Mesophotic","Shallow")</f>
         <v>Shallow</v>
       </c>
       <c r="M130" s="9" t="s">
@@ -69119,7 +69122,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L131" t="str">
-        <f>IF(K131&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M131" s="9" t="s">
@@ -69161,7 +69164,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="L132" t="str">
-        <f>IF(K132&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M132" s="9" t="s">
@@ -69203,7 +69206,7 @@
         <v>18.3</v>
       </c>
       <c r="L133" t="str">
-        <f>IF(K133&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M133" s="9" t="s">
@@ -69245,7 +69248,7 @@
         <v>18.605</v>
       </c>
       <c r="L134" t="str">
-        <f>IF(K134&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M134" s="9" t="s">
@@ -69287,7 +69290,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L135" t="str">
-        <f>IF(K135&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M135" s="9" t="s">
@@ -69329,7 +69332,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L136" t="str">
-        <f>IF(K136&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M136" s="9" t="s">
@@ -69371,7 +69374,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L137" t="str">
-        <f>IF(K137&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M137" s="9" t="s">
@@ -69413,7 +69416,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L138" t="str">
-        <f>IF(K138&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M138" s="9" t="s">
@@ -69455,7 +69458,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L139" t="str">
-        <f>IF(K139&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M139" s="9" t="s">
@@ -69497,7 +69500,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L140" t="str">
-        <f>IF(K140&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M140" s="9" t="s">
@@ -69539,7 +69542,7 @@
         <v>17.690000000000001</v>
       </c>
       <c r="L141" t="str">
-        <f>IF(K141&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M141" s="9" t="s">
@@ -69581,7 +69584,7 @@
         <v>17.384999999999998</v>
       </c>
       <c r="L142" t="str">
-        <f>IF(K142&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M142" s="9" t="s">
@@ -69623,7 +69626,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L143" t="str">
-        <f>IF(K143&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M143" s="9" t="s">
@@ -69665,7 +69668,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L144" t="str">
-        <f>IF(K144&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M144" s="9" t="s">
@@ -69707,7 +69710,7 @@
         <v>18.605</v>
       </c>
       <c r="L145" t="str">
-        <f>IF(K145&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M145" s="9" t="s">
@@ -69749,7 +69752,7 @@
         <v>32.634999999999998</v>
       </c>
       <c r="L146" t="str">
-        <f>IF(K146&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M146" s="9" t="s">
@@ -69791,7 +69794,7 @@
         <v>32.634999999999998</v>
       </c>
       <c r="L147" t="str">
-        <f>IF(K147&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M147" s="9" t="s">
@@ -69833,7 +69836,7 @@
         <v>32.024999999999999</v>
       </c>
       <c r="L148" t="str">
-        <f>IF(K148&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M148" s="9" t="s">
@@ -69875,7 +69878,7 @@
         <v>32.33</v>
       </c>
       <c r="L149" t="str">
-        <f>IF(K149&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M149" s="9" t="s">
@@ -69917,7 +69920,7 @@
         <v>31.11</v>
       </c>
       <c r="L150" t="str">
-        <f>IF(K150&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M150" s="9" t="s">
@@ -69959,7 +69962,7 @@
         <v>31.11</v>
       </c>
       <c r="L151" t="str">
-        <f>IF(K151&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M151" s="9" t="s">
@@ -70001,7 +70004,7 @@
         <v>30.805</v>
       </c>
       <c r="L152" t="str">
-        <f>IF(K152&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M152" s="9" t="s">
@@ -70043,7 +70046,7 @@
         <v>30.195</v>
       </c>
       <c r="L153" t="str">
-        <f>IF(K153&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M153" s="9" t="s">
@@ -70085,7 +70088,7 @@
         <v>31.11</v>
       </c>
       <c r="L154" t="str">
-        <f>IF(K154&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M154" s="9" t="s">
@@ -70127,7 +70130,7 @@
         <v>30.5</v>
       </c>
       <c r="L155" t="str">
-        <f>IF(K155&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M155" s="9" t="s">
@@ -70169,7 +70172,7 @@
         <v>31.11</v>
       </c>
       <c r="L156" t="str">
-        <f>IF(K156&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M156" s="9" t="s">
@@ -70211,7 +70214,7 @@
         <v>31.11</v>
       </c>
       <c r="L157" t="str">
-        <f>IF(K157&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M157" s="9" t="s">
@@ -70253,7 +70256,7 @@
         <v>31.11</v>
       </c>
       <c r="L158" t="str">
-        <f>IF(K158&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M158" s="9" t="s">
@@ -70295,7 +70298,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L159" t="str">
-        <f>IF(K159&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M159" s="9" t="s">
@@ -70337,7 +70340,7 @@
         <v>35.685000000000002</v>
       </c>
       <c r="L160" t="str">
-        <f>IF(K160&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M160" s="9" t="s">
@@ -70379,7 +70382,7 @@
         <v>35.380000000000003</v>
       </c>
       <c r="L161" t="str">
-        <f>IF(K161&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M161" s="9" t="s">
@@ -70421,7 +70424,7 @@
         <v>35.380000000000003</v>
       </c>
       <c r="L162" t="str">
-        <f>IF(K162&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M162" s="9" t="s">
@@ -70463,7 +70466,7 @@
         <v>35.685000000000002</v>
       </c>
       <c r="L163" t="str">
-        <f>IF(K163&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M163" s="9" t="s">
@@ -70505,7 +70508,7 @@
         <v>35.380000000000003</v>
       </c>
       <c r="L164" t="str">
-        <f>IF(K164&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M164" s="9" t="s">
@@ -70547,7 +70550,7 @@
         <v>35.380000000000003</v>
       </c>
       <c r="L165" t="str">
-        <f>IF(K165&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M165" s="9" t="s">
@@ -70589,7 +70592,7 @@
         <v>34.464999999999996</v>
       </c>
       <c r="L166" t="str">
-        <f>IF(K166&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M166" s="9" t="s">
@@ -70631,7 +70634,7 @@
         <v>35.074999999999996</v>
       </c>
       <c r="L167" t="str">
-        <f>IF(K167&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M167" s="9" t="s">
@@ -70673,7 +70676,7 @@
         <v>22.875</v>
       </c>
       <c r="L168" t="str">
-        <f>IF(K168&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M168" s="9" t="s">
@@ -70715,7 +70718,7 @@
         <v>20.74</v>
       </c>
       <c r="L169" t="str">
-        <f>IF(K169&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M169" s="9" t="s">
@@ -70757,7 +70760,7 @@
         <v>20.13</v>
       </c>
       <c r="L170" t="str">
-        <f>IF(K170&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M170" s="9" t="s">
@@ -70799,7 +70802,7 @@
         <v>20.434999999999999</v>
       </c>
       <c r="L171" t="str">
-        <f>IF(K171&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M171" s="9" t="s">
@@ -70841,7 +70844,7 @@
         <v>20.74</v>
       </c>
       <c r="L172" t="str">
-        <f>IF(K172&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M172" s="9" t="s">
@@ -70883,7 +70886,7 @@
         <v>21.044999999999998</v>
       </c>
       <c r="L173" t="str">
-        <f>IF(K173&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M173" s="9" t="s">
@@ -70925,7 +70928,7 @@
         <v>20.74</v>
       </c>
       <c r="L174" t="str">
-        <f>IF(K174&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M174" s="9" t="s">
@@ -70967,7 +70970,7 @@
         <v>21.044999999999998</v>
       </c>
       <c r="L175" t="str">
-        <f>IF(K175&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M175" s="9" t="s">
@@ -71009,7 +71012,7 @@
         <v>43.31</v>
       </c>
       <c r="L176" t="str">
-        <f>IF(K176&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M176" s="9" t="s">
@@ -71051,7 +71054,7 @@
         <v>43.31</v>
       </c>
       <c r="L177" t="str">
-        <f>IF(K177&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M177" s="9" t="s">
@@ -71093,7 +71096,7 @@
         <v>43.31</v>
       </c>
       <c r="L178" t="str">
-        <f>IF(K178&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M178" s="9" t="s">
@@ -71135,7 +71138,7 @@
         <v>43.31</v>
       </c>
       <c r="L179" t="str">
-        <f>IF(K179&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M179" s="9" t="s">
@@ -71177,7 +71180,7 @@
         <v>43.005000000000003</v>
       </c>
       <c r="L180" t="str">
-        <f>IF(K180&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M180" s="9" t="s">
@@ -71219,7 +71222,7 @@
         <v>43.005000000000003</v>
       </c>
       <c r="L181" t="str">
-        <f>IF(K181&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M181" s="9" t="s">
@@ -71261,7 +71264,7 @@
         <v>43.31</v>
       </c>
       <c r="L182" t="str">
-        <f>IF(K182&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M182" s="9" t="s">
@@ -71303,7 +71306,7 @@
         <v>18.91</v>
       </c>
       <c r="L183" t="str">
-        <f>IF(K183&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M183" s="9" t="s">
@@ -71345,7 +71348,7 @@
         <v>19.215</v>
       </c>
       <c r="L184" t="str">
-        <f>IF(K184&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M184" s="9" t="s">
@@ -71387,7 +71390,7 @@
         <v>18.605</v>
       </c>
       <c r="L185" t="str">
-        <f>IF(K185&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M185" s="9" t="s">
@@ -71429,7 +71432,7 @@
         <v>18.3</v>
       </c>
       <c r="L186" t="str">
-        <f>IF(K186&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M186" s="9" t="s">
@@ -71471,7 +71474,7 @@
         <v>18.605</v>
       </c>
       <c r="L187" t="str">
-        <f>IF(K187&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M187" s="9" t="s">
@@ -71513,7 +71516,7 @@
         <v>17.995000000000001</v>
       </c>
       <c r="L188" t="str">
-        <f>IF(K188&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Shallow</v>
       </c>
       <c r="M188" s="9" t="s">
@@ -71555,7 +71558,7 @@
         <v>42.699999999999996</v>
       </c>
       <c r="L189" t="str">
-        <f>IF(K189&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M189" s="9" t="s">
@@ -71597,7 +71600,7 @@
         <v>43.005000000000003</v>
       </c>
       <c r="L190" t="str">
-        <f>IF(K190&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M190" s="9" t="s">
@@ -71639,7 +71642,7 @@
         <v>40.869999999999997</v>
       </c>
       <c r="L191" t="str">
-        <f>IF(K191&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M191" s="9" t="s">
@@ -71681,7 +71684,7 @@
         <v>40.869999999999997</v>
       </c>
       <c r="L192" t="str">
-        <f>IF(K192&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M192" s="9" t="s">
@@ -71723,7 +71726,7 @@
         <v>41.784999999999997</v>
       </c>
       <c r="L193" t="str">
-        <f>IF(K193&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="2"/>
         <v>Mesophotic</v>
       </c>
       <c r="M193" s="9" t="s">
@@ -71765,7 +71768,7 @@
         <v>43.615000000000002</v>
       </c>
       <c r="L194" t="str">
-        <f>IF(K194&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" ref="L194:L257" si="3">IF(K194&gt;29.5,"Mesophotic","Shallow")</f>
         <v>Mesophotic</v>
       </c>
       <c r="M194" s="9" t="s">
@@ -71807,7 +71810,7 @@
         <v>43.31</v>
       </c>
       <c r="L195" t="str">
-        <f>IF(K195&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Mesophotic</v>
       </c>
       <c r="M195" s="9" t="s">
@@ -71849,7 +71852,7 @@
         <v>43.615000000000002</v>
       </c>
       <c r="L196" t="str">
-        <f>IF(K196&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Mesophotic</v>
       </c>
       <c r="M196" s="9" t="s">
@@ -71891,7 +71894,7 @@
         <v>44.225000000000001</v>
       </c>
       <c r="L197" t="str">
-        <f>IF(K197&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Mesophotic</v>
       </c>
       <c r="M197" s="9" t="s">
@@ -71933,7 +71936,7 @@
         <v>45.14</v>
       </c>
       <c r="L198" t="str">
-        <f>IF(K198&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Mesophotic</v>
       </c>
       <c r="M198" s="9" t="s">
@@ -71975,7 +71978,7 @@
         <v>27.45</v>
       </c>
       <c r="L199" t="str">
-        <f>IF(K199&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M199" s="9" t="s">
@@ -72017,7 +72020,7 @@
         <v>27.45</v>
       </c>
       <c r="L200" t="str">
-        <f>IF(K200&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M200" s="9" t="s">
@@ -72059,7 +72062,7 @@
         <v>25.009999999999998</v>
       </c>
       <c r="L201" t="str">
-        <f>IF(K201&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M201" s="9" t="s">
@@ -72101,7 +72104,7 @@
         <v>27.754999999999999</v>
       </c>
       <c r="L202" t="str">
-        <f>IF(K202&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M202" s="9" t="s">
@@ -72143,7 +72146,7 @@
         <v>25.925000000000001</v>
       </c>
       <c r="L203" t="str">
-        <f>IF(K203&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M203" s="9" t="s">
@@ -72185,7 +72188,7 @@
         <v>26.23</v>
       </c>
       <c r="L204" t="str">
-        <f>IF(K204&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M204" s="9" t="s">
@@ -72227,7 +72230,7 @@
         <v>24.4</v>
       </c>
       <c r="L205" t="str">
-        <f>IF(K205&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M205" s="9" t="s">
@@ -72269,7 +72272,7 @@
         <v>25.925000000000001</v>
       </c>
       <c r="L206" t="str">
-        <f>IF(K206&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M206" s="9" t="s">
@@ -72311,7 +72314,7 @@
         <v>26.535</v>
       </c>
       <c r="L207" t="str">
-        <f>IF(K207&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M207" s="9" t="s">
@@ -72353,7 +72356,7 @@
         <v>25.925000000000001</v>
       </c>
       <c r="L208" t="str">
-        <f>IF(K208&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M208" s="9" t="s">
@@ -72395,7 +72398,7 @@
         <v>26.23</v>
       </c>
       <c r="L209" t="str">
-        <f>IF(K209&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M209" s="9" t="s">
@@ -72437,7 +72440,7 @@
         <v>26.23</v>
       </c>
       <c r="L210" t="str">
-        <f>IF(K210&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M210" s="9" t="s">
@@ -72479,7 +72482,7 @@
         <v>28.364999999999998</v>
       </c>
       <c r="L211" t="str">
-        <f>IF(K211&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M211" s="9" t="s">
@@ -72521,7 +72524,7 @@
         <v>27.45</v>
       </c>
       <c r="L212" t="str">
-        <f>IF(K212&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M212" s="9" t="s">
@@ -72563,7 +72566,7 @@
         <v>27.145</v>
       </c>
       <c r="L213" t="str">
-        <f>IF(K213&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M213" s="9" t="s">
@@ -72605,7 +72608,7 @@
         <v>26.84</v>
       </c>
       <c r="L214" t="str">
-        <f>IF(K214&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M214" s="9" t="s">
@@ -72647,7 +72650,7 @@
         <v>26.535</v>
       </c>
       <c r="L215" t="str">
-        <f>IF(K215&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M215" s="9" t="s">
@@ -72689,7 +72692,7 @@
         <v>23.5</v>
       </c>
       <c r="L216" t="str">
-        <f>IF(K216&gt;29.5,"Mesophotic","Shallow")</f>
+        <f t="shared" si="3"/>
         <v>Shallow</v>
       </c>
       <c r="M216" s="9" t="s">
